--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -490,22 +490,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>210809</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211232</t>
+          <t>200917</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,294 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>211232</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>211232</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>211232</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>211741</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>211741</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>15/09/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>211741</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>201007</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>18/09/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>201766</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>201766</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200917</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>08/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,102 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211783</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>211735</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>211288</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211623</t>
+          <t>201297</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,102 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>211783</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>08/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>211735</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>08/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>211288</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>08/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201297</t>
+          <t>211210</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>14/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>201880</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201880</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,774 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>200852</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>200858</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>200866</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>200869</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>200877</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>200897</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>200904</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>200905</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>200917</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>200928</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>200933</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>200938</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>200943</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>200958</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>200968</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>200994</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>200997</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>200999</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>201013</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>201022</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>201023</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>201026</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>201051</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200850</t>
+          <t>201065</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>200852</t>
+          <t>201080</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>200858</t>
+          <t>201157</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>200866</t>
+          <t>201171</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>200869</t>
+          <t>201190</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>200877</t>
+          <t>201197</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>200897</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>201237</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>200914</t>
+          <t>201253</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>200917</t>
+          <t>201255</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>200928</t>
+          <t>201297</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>200933</t>
+          <t>201328</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>200938</t>
+          <t>201337</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>200943</t>
+          <t>201397</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>200958</t>
+          <t>201398</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>200968</t>
+          <t>201438</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>200994</t>
+          <t>201465</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>200997</t>
+          <t>201495</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>200999</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>201013</t>
+          <t>201513</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>201022</t>
+          <t>201529</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>201023</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>201026</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>201051</t>
+          <t>201564</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1285,6 +1285,198 @@
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>201572</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>201574</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>201632</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>201638</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>201669</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>201670</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>211741</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>12/10/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,70 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>191258</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>12/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>191061</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211741</t>
+          <t>181004</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>13/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,390 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211246</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>201513</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>201237</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>211121</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>200933</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>211146</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>180804</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>211096</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>211242</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>201190</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>190922</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>201438</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>181004</t>
+          <t>191061</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211246</t>
+          <t>191502</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>191480</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201237</t>
+          <t>191375</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211121</t>
+          <t>181013</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>200933</t>
+          <t>211175</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>211146</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>180804</t>
+          <t>201297</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>211096</t>
+          <t>201253</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>211242</t>
+          <t>200727</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>201190</t>
+          <t>200708</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>200943</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>201438</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -901,6 +901,166 @@
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>200405</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>201682</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>200858</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>200938</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>201065</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>191061</t>
+          <t>211147</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>191502</t>
+          <t>211086</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>191480</t>
+          <t>201197</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>191375</t>
+          <t>191258</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>181013</t>
+          <t>200904</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>211175</t>
+          <t>200003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>201218</t>
+          <t>191186</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>201297</t>
+          <t>201990</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -741,326 +741,6 @@
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>201253</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>200727</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>200708</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>200943</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>201343</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>200405</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>201682</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>200858</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>200938</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>201065</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211147</t>
+          <t>201795</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211086</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>201197</t>
+          <t>190846</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>191258</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>211131</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>200003</t>
+          <t>200359</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -677,70 +677,6 @@
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>191186</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>201990</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201795</t>
+          <t>200869</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211177</t>
+          <t>200852</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>190846</t>
+          <t>200897</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201563</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211131</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>200359</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -677,6 +677,102 @@
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>200785</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>201574</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>201252</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -74,7 +74,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +499,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200869</t>
+          <t>212455</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,13 +509,11 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -523,32 +527,30 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>200852</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>212433</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -557,7 +559,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>200897</t>
+          <t>212370</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -567,52 +569,50 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>211486</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>200850</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>211728</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,32 +651,30 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>201838</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>212183</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -685,7 +683,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>200785</t>
+          <t>212245</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -695,52 +693,50 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>211908</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>201574</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -749,7 +745,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>212137</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -759,20 +755,176 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>211680</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>212440</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>211590</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>211777</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>211732</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -74,10 +74,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212455</t>
+          <t>211865</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -512,8 +512,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -527,30 +529,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>212433</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211415</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -559,7 +563,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>212370</t>
+          <t>212279</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -572,7 +576,7 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.4375</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -587,32 +591,32 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>211486</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>211936</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -621,7 +625,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211728</t>
+          <t>211882</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -651,17 +655,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>212183</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>212283</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>14/10/2025</t>
         </is>
@@ -669,12 +673,12 @@
       <c r="D7" s="5" t="n">
         <v>0.4375</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -683,7 +687,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>212245</t>
+          <t>211791</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -696,8 +700,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -711,32 +717,32 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>211908</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>211854</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -745,7 +751,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>212137</t>
+          <t>211451</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -758,8 +764,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -773,32 +781,32 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>211680</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>211457</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -807,7 +815,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>212440</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -820,8 +828,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -835,32 +845,32 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>211590</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>211764</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -869,7 +879,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>211777</t>
+          <t>212592</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -882,10 +892,8 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
+      <c r="D14" s="4" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -899,32 +907,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>211732</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>212161</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>212501</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>211672</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>211699</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>211720</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -74,13 +74,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211865</t>
+          <t>212598</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -512,49 +509,47 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>211697</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Excuse</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>211415</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -563,7 +558,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>212279</t>
+          <t>211769</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -576,8 +571,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.4375</v>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -591,32 +588,32 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>211936</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>211959</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>general surgery</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Excuse</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -625,7 +622,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211882</t>
+          <t>212333</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -638,47 +635,47 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>211973</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Excuse</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>212283</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>
@@ -687,7 +684,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>211791</t>
+          <t>211687</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,346 +714,32 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>211854</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>211926</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>general surgery</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>10:30:00</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Excuse</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>211451</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>211457</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>211623</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>211764</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>212592</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>212161</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>212501</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>211672</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>211699</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>211720</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212598</t>
+          <t>212205</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>211697</t>
+          <t>211984</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>211769</t>
+          <t>212266</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -571,10 +571,8 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
+      <c r="D4" s="3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -590,7 +588,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>211959</t>
+          <t>211757</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -622,7 +620,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>212333</t>
+          <t>211737</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -635,8 +633,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>211973</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>211687</t>
+          <t>211299</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -708,38 +708,6 @@
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>211926</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,18 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212205</t>
+          <t>211783</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -509,8 +503,10 @@
           <t>14/10/2025</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0.4375</v>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -518,196 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>211984</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>212266</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>211757</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>211737</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>211263</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>211299</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211783</t>
+          <t>212307</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,13 +503,11 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>10/09/2025</t>
+          <t>11/09/2025</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212307</t>
+          <t>212254</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>09/09/2025</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212254</t>
+          <t>211877</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,11 +500,13 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.4375</v>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211877</t>
+          <t>211276</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +506,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
+          <t>16/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +520,36 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>212155</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -75,9 +75,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211276</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -506,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>16/10/2025</t>
+          <t>18/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -528,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>212155</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -538,11 +535,13 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>16/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.4375</v>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -74,7 +74,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +499,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>212135</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,13 +509,11 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>18/10/2025</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -523,32 +527,660 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>201572</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>18/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>212137</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>212144</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>212151</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>212152</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>212154</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>212155</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>212161</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>212183</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>212184</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>212193</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>212195</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>212205</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>212245</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>212248</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>212254</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>212258</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>212266</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>212279</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>212283</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>212291</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>212306</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>212307</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>212135</t>
+          <t>212314</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>212137</t>
+          <t>212315</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>212144</t>
+          <t>212320</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>212151</t>
+          <t>212324</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>212152</t>
+          <t>212333</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>212154</t>
+          <t>212345</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>212155</t>
+          <t>212346</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>212161</t>
+          <t>212347</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>212183</t>
+          <t>212362</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>212184</t>
+          <t>212368</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>212193</t>
+          <t>212370</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>212195</t>
+          <t>212373</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -859,7 +859,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>212205</t>
+          <t>212377</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>212245</t>
+          <t>212414</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>212248</t>
+          <t>212431</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>212254</t>
+          <t>212433</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -979,7 +979,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>212258</t>
+          <t>212440</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>212266</t>
+          <t>212445</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>212279</t>
+          <t>212453</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>212283</t>
+          <t>212455</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>212291</t>
+          <t>212477</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>212306</t>
+          <t>212479</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1159,7 +1159,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>212307</t>
+          <t>212501</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1181,6 +1181,336 @@
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>212511</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>212587</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>212588</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>212592</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>212598</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>221758</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>221884</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>223003</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>223004</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>223005</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>223006</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200744</t>
+          <t>200928</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>12/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200928</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -514,6 +517,262 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211169</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>200943</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>211121</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>191055</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>202022</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>201513</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>200997</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>201880</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201218</t>
+          <t>200958</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211169</t>
+          <t>200785</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>200943</t>
+          <t>201023</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>211121</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>191055</t>
+          <t>211146</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>202022</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>201237</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>200997</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -741,38 +741,6 @@
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>201880</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200958</t>
+          <t>201255</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>20/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,230 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>200785</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>201023</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>201838</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>211146</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>201574</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>201237</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>211137</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201255</t>
+          <t>190807</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -514,6 +517,38 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211242</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>190807</t>
+          <t>211210</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>20/09/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,38 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>211242</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>20/09/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>201328</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201328</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201574</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>202089</t>
+          <t>191480</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,38 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>191375</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>191480</t>
+          <t>190807</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08/09/2025</t>
+          <t>20/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,38 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>191375</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>08/09/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>190807</t>
+          <t>211907</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>20/09/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,38 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>211799</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211907</t>
+          <t>200968</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211799</t>
+          <t>200897</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -549,6 +549,710 @@
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>201190</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>200003</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>191478</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>202041</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>201328</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>191119</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>200744</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>201819</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>211146</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>201343</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>201398</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>201513</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>201823</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>200997</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>200943</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>211121</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>202022</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>201880</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>211246</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>211210</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>181004</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>211217</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200968</t>
+          <t>211242</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>200897</t>
+          <t>200905</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>201190</t>
+          <t>201638</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>200003</t>
+          <t>200727</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>191478</t>
+          <t>191480</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>202041</t>
+          <t>211197</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>201328</t>
+          <t>201051</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>191119</t>
+          <t>211111</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>200744</t>
+          <t>191062</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>201819</t>
+          <t>200866</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>211146</t>
+          <t>201954</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>202162</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>201398</t>
+          <t>191186</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>211102</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>201823</t>
+          <t>200742</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>200997</t>
+          <t>211004</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>200943</t>
+          <t>200928</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>211121</t>
+          <t>190314</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>202022</t>
+          <t>200490</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>201880</t>
+          <t>200423</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>211246</t>
+          <t>201495</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>191052</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1189,70 +1189,6 @@
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>181004</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>211217</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211242</t>
+          <t>190981</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>191055</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>201638</t>
+          <t>211216</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>200727</t>
+          <t>201669</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>191480</t>
+          <t>190922</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>211197</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>201051</t>
+          <t>200785</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>211111</t>
+          <t>200116</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>191062</t>
+          <t>201632</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>200866</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>201954</t>
+          <t>180804</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>202162</t>
+          <t>190807</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>191186</t>
+          <t>191109</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>211102</t>
+          <t>210923</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>200742</t>
+          <t>201026</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>211004</t>
+          <t>181013</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>200928</t>
+          <t>201157</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>190314</t>
+          <t>211096</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>200490</t>
+          <t>211147</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>200423</t>
+          <t>211046</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>201495</t>
+          <t>190803</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>191052</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1189,6 +1189,134 @@
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>211133</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>200228</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>191131</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>200869</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>190981</t>
+          <t>211131</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>191055</t>
+          <t>211043</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>211216</t>
+          <t>191375</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201669</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>211010</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>201080</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>200785</t>
+          <t>201465</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>200116</t>
+          <t>190801</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>201632</t>
+          <t>200914</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>201563</t>
+          <t>200938</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>180804</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>190807</t>
+          <t>200877</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>191109</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>210923</t>
+          <t>201834</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>201026</t>
+          <t>200491</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>181013</t>
+          <t>201840</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>201157</t>
+          <t>190975</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>211096</t>
+          <t>201825</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>211147</t>
+          <t>201255</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>211046</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>190803</t>
+          <t>201682</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>201572</t>
+          <t>201397</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>211133</t>
+          <t>200344</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>200228</t>
+          <t>200804</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -1253,70 +1253,6 @@
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>191131</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>200869</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211131</t>
+          <t>190874</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>211043</t>
+          <t>201253</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>191375</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201574</t>
+          <t>201023</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>211010</t>
+          <t>201670</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>201080</t>
+          <t>190796</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>201465</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>190801</t>
+          <t>191258</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>200914</t>
+          <t>200468</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>200938</t>
+          <t>201065</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>200850</t>
+          <t>191502</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>200877</t>
+          <t>200933</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -869,390 +869,6 @@
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>202089</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>201834</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>200491</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>201840</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>190975</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>201825</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>201255</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>210728</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>201682</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>201397</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>200344</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>200804</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>190874</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>200958</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201023</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>201670</t>
+          <t>201438</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>190796</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -677,198 +677,6 @@
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>201838</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>191258</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>200468</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>201065</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>191502</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>200933</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>200933</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>201253</t>
+          <t>200792</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>200958</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>201574</t>
+          <t>191088</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>201438</t>
+          <t>211169</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>211741</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200933</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -503,7 +500,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -517,166 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>200792</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>211177</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>191088</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>211169</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>211741</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>200850</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,390 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>191088</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>211169</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>211741</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>201529</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>211245</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>200359</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>201197</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>201218</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>200852</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>200405</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>211174</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,15 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -493,22 +490,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211177</t>
+          <t>221203</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>08/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -517,390 +514,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>191088</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>211169</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>211741</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>201529</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>211245</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>200359</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>201197</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>201218</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>200852</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>202004</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>200405</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>211174</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Excuse</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>System</t>
         </is>

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Excuses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -490,22 +490,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>221203</t>
+          <t>211764</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>cardiology</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08/10/2025</t>
+          <t>29/10/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/log_history/Y4_B2526_Excuses.xlsx
+++ b/log_history/Y4_B2526_Excuses.xlsx
@@ -66,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +493,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>211764</t>
+          <t>190540</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -500,7 +503,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>09/09/2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,6 +517,38 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>190540</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Excuse</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>System</t>
         </is>
